--- a/teaching/traditional_assets/database/data/tunisia/tunisia_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/tunisia/tunisia_reinsurance.xlsx
@@ -591,79 +591,76 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09669999999999999</v>
+        <v>0.117</v>
       </c>
       <c r="E2">
-        <v>-0.0191</v>
+        <v>0.0236</v>
       </c>
       <c r="G2">
-        <v>0.08659217877094973</v>
+        <v>0.06515151515151515</v>
       </c>
       <c r="H2">
-        <v>0.08659217877094973</v>
+        <v>0.06515151515151515</v>
       </c>
       <c r="I2">
-        <v>0.003016759776536313</v>
+        <v>0.1608585858585859</v>
       </c>
       <c r="J2">
-        <v>0.002322821921603029</v>
+        <v>0.1254877203406615</v>
       </c>
       <c r="K2">
-        <v>2.79</v>
+        <v>5.57</v>
       </c>
       <c r="L2">
-        <v>0.07793296089385475</v>
+        <v>0.1406565656565656</v>
       </c>
       <c r="M2">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.06631944444444444</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.369175627240143</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.06631944444444444</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.369175627240143</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>4.12</v>
+        <v>2.55</v>
       </c>
       <c r="V2">
-        <v>0.07152777777777777</v>
+        <v>0.04419410745233968</v>
       </c>
       <c r="W2">
-        <v>0.03671052631578947</v>
+        <v>0.08203240058910162</v>
       </c>
       <c r="X2">
-        <v>0.1169624962825721</v>
+        <v>0.1351317619518854</v>
       </c>
       <c r="Y2">
-        <v>-0.08025196996678265</v>
+        <v>-0.05309936136278375</v>
       </c>
       <c r="Z2">
-        <v>0.4919609729284046</v>
+        <v>0.6208842897460018</v>
       </c>
       <c r="AA2">
-        <v>0.001142737732491252</v>
+        <v>0.07791335411555654</v>
       </c>
       <c r="AB2">
-        <v>0.1169624962825721</v>
+        <v>0.1351317619518854</v>
       </c>
       <c r="AC2">
-        <v>-0.1158197585500809</v>
+        <v>-0.05721840783632882</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-4.12</v>
+        <v>-2.55</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,28 +681,22 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.07703814510097232</v>
+        <v>-0.04623753399818675</v>
       </c>
       <c r="AK2">
-        <v>-0.06459705236751331</v>
+        <v>-0.03583977512297962</v>
       </c>
       <c r="AL2">
-        <v>0.491</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.491</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AO2">
-        <v>0.219959266802444</v>
-      </c>
       <c r="AP2">
-        <v>-17.02479338842975</v>
-      </c>
-      <c r="AQ2">
-        <v>0.219959266802444</v>
+        <v>-0.3935185185185185</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Société Tunisienne de Réassurance Tunis Re Société anonyme (BVMT:TRE)</t>
+          <t>Société Tunisienne de Réassurance (BVMT:TRE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,79 +716,76 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.09669999999999999</v>
+        <v>0.117</v>
       </c>
       <c r="E3">
-        <v>-0.0191</v>
+        <v>0.0236</v>
       </c>
       <c r="G3">
-        <v>0.08659217877094973</v>
+        <v>0.06515151515151515</v>
       </c>
       <c r="H3">
-        <v>0.08659217877094973</v>
+        <v>0.06515151515151515</v>
       </c>
       <c r="I3">
-        <v>0.003016759776536313</v>
+        <v>0.1608585858585859</v>
       </c>
       <c r="J3">
-        <v>0.002322821921603029</v>
+        <v>0.1254877203406615</v>
       </c>
       <c r="K3">
-        <v>2.79</v>
+        <v>5.57</v>
       </c>
       <c r="L3">
-        <v>0.07793296089385475</v>
+        <v>0.1406565656565656</v>
       </c>
       <c r="M3">
-        <v>3.82</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.06631944444444444</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.369175627240143</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>3.82</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.06631944444444444</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.369175627240143</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>4.12</v>
+        <v>2.55</v>
       </c>
       <c r="V3">
-        <v>0.07152777777777777</v>
+        <v>0.04419410745233968</v>
       </c>
       <c r="W3">
-        <v>0.03671052631578947</v>
+        <v>0.08203240058910162</v>
       </c>
       <c r="X3">
-        <v>0.1169624962825721</v>
+        <v>0.1351317619518854</v>
       </c>
       <c r="Y3">
-        <v>-0.08025196996678265</v>
+        <v>-0.05309936136278375</v>
       </c>
       <c r="Z3">
-        <v>0.4919609729284046</v>
+        <v>0.6208842897460018</v>
       </c>
       <c r="AA3">
-        <v>0.001142737732491252</v>
+        <v>0.07791335411555654</v>
       </c>
       <c r="AB3">
-        <v>0.1169624962825721</v>
+        <v>0.1351317619518854</v>
       </c>
       <c r="AC3">
-        <v>-0.1158197585500809</v>
+        <v>-0.05721840783632882</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -809,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-4.12</v>
+        <v>-2.55</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -818,28 +806,22 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.07703814510097232</v>
+        <v>-0.04623753399818675</v>
       </c>
       <c r="AK3">
-        <v>-0.06459705236751331</v>
+        <v>-0.03583977512297962</v>
       </c>
       <c r="AL3">
-        <v>0.491</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.491</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
-      <c r="AO3">
-        <v>0.219959266802444</v>
-      </c>
       <c r="AP3">
-        <v>-17.02479338842975</v>
-      </c>
-      <c r="AQ3">
-        <v>0.219959266802444</v>
+        <v>-0.3935185185185185</v>
       </c>
     </row>
   </sheetData>
